--- a/LEXICON/Lexicon.xlsx
+++ b/LEXICON/Lexicon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jat\Desktop\unmsm\Thesis_project_QuispeCabello_Sanchez_Wong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jat\Desktop\unmsm\Thesis_project_QuispeCabello_Sanchez_Wong\LEXICON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213FECF8-65E5-4E68-BF6F-75809292FC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC537F21-F871-4D1C-A5B3-75A04C000616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{9B249666-9A8A-4383-8168-2FD58BE5AA28}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="1701">
   <si>
     <t>Text</t>
   </si>
@@ -5139,6 +5139,9 @@
   </si>
   <si>
     <t>molestarme</t>
+  </si>
+  <si>
+    <t>farsa</t>
   </si>
 </sst>
 </file>
@@ -13356,11 +13359,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5993EC-C272-4BB3-8AF9-D99E2F29219A}">
-  <dimension ref="A1:H1140"/>
+  <dimension ref="A1:H1141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A1124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1141" sqref="G1141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36269,6 +36272,26 @@
       </c>
       <c r="F1140">
         <v>1</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1141" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B1141">
+        <v>0</v>
+      </c>
+      <c r="C1141">
+        <v>1</v>
+      </c>
+      <c r="D1141">
+        <v>1</v>
+      </c>
+      <c r="E1141">
+        <v>0</v>
+      </c>
+      <c r="F1141">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
